--- a/tests/ExcelImport/workbooks/tube-importer.xlsx
+++ b/tests/ExcelImport/workbooks/tube-importer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jok/Projects/covid-symfony-prototype/tests/ExcelImport/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F4C3B-28EF-854A-A969-1D9EAF90C06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB8FE7-CE1B-304E-9B82-C80BFC5EF4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26660" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
+    <workbookView xWindow="11340" yWindow="460" windowWidth="15320" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tube Accession ID</t>
   </si>
   <si>
-    <t>TEST0001</t>
-  </si>
-  <si>
-    <t>TEST0002</t>
-  </si>
-  <si>
-    <t>TEST0003</t>
-  </si>
-  <si>
-    <t>TEST0004</t>
-  </si>
-  <si>
-    <t>TEST0005</t>
+    <t>TESTImport0001</t>
+  </si>
+  <si>
+    <t>TESTImport0002</t>
+  </si>
+  <si>
+    <t>TESTImport0003</t>
+  </si>
+  <si>
+    <t>TESTImport0004</t>
+  </si>
+  <si>
+    <t>TESTImport0005</t>
+  </si>
+  <si>
+    <t>TESTImport0006</t>
+  </si>
+  <si>
+    <t>TESTImport0007</t>
+  </si>
+  <si>
+    <t>TESTImport0008</t>
+  </si>
+  <si>
+    <t>TESTImport0009</t>
+  </si>
+  <si>
+    <t>TESTImport0010</t>
   </si>
 </sst>
 </file>
@@ -441,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBBEC93-7333-1442-B72C-828450A2C003}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
@@ -488,8 +503,31 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/tests/ExcelImport/workbooks/tube-importer.xlsx
+++ b/tests/ExcelImport/workbooks/tube-importer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jok/Projects/covid-symfony-prototype/tests/ExcelImport/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB8FE7-CE1B-304E-9B82-C80BFC5EF4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC11E45-5163-F14A-96FB-7CED49900F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11340" yWindow="460" windowWidth="15320" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBBEC93-7333-1442-B72C-828450A2C003}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,34 +498,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
